--- a/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/Table4.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/Table4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D460450D-E80A-3F4B-A5EB-D6D07C0CB15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790CDB06-C6B0-3046-A55F-D7FBD3CC7A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -143,32 +143,32 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -487,151 +487,151 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="57"/>
     <col min="2" max="2" width="12"/>
     <col min="3" max="3" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>929</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>917</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>665</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>1292</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>1325</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>1267</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>1319</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>622</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>5832</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>5961</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>2914</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>3273</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <v>716</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <v>918</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <v>24</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>14261</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <v>14962</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:3" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <f>SUM(B3:B11)-B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <f>SUM(C3:C11)-C12</f>
         <v>0</v>
       </c>
